--- a/cd/doc/formaty_plikow_xls_do_importu_danych/siatkaGodzinowa.xlsx
+++ b/cd/doc/formaty_plikow_xls_do_importu_danych/siatkaGodzinowa.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Etykieta</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>Godz do.</t>
+  </si>
+  <si>
+    <t>Lp</t>
   </si>
 </sst>
 </file>
@@ -47,7 +50,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -57,6 +60,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -73,10 +82,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -378,88 +388,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
         <v>0.34375</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>0.375</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
         <v>0.46875</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
         <v>0.51041666666666663</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>0.58333333333333337</v>
       </c>
     </row>
